--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_42.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_42.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Satomi Suzuki</t>
+          <t>Hanako Nakajima</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
